--- a/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
+++ b/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
@@ -14,7 +14,7 @@
     <definedName name="Invoice_Details">#REF!</definedName>
     <definedName name="Invoice_Optional_Fields">#REF!</definedName>
     <definedName name="Invoice_Payment_Schedules">#REF!</definedName>
-    <definedName name="Invoices">'Job Costings'!$A$1:$J$2</definedName>
+    <definedName name="Invoices">'Job Costings'!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>CNTBTCH</t>
-  </si>
-  <si>
-    <t>CNTITEM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>CUSTPO</t>
   </si>
@@ -89,6 +83,30 @@
   </si>
   <si>
     <t>TAX ($)</t>
+  </si>
+  <si>
+    <t>TOTAL COST ($)</t>
+  </si>
+  <si>
+    <t>DEPOSIT RECEIPT #s</t>
+  </si>
+  <si>
+    <t>DEPOSIT($)</t>
+  </si>
+  <si>
+    <t>DISCOUNT(%)</t>
+  </si>
+  <si>
+    <t>AMOUNT DUE($)</t>
+  </si>
+  <si>
+    <t>PREPARED BY</t>
+  </si>
+  <si>
+    <t>AUTHORIZED BY</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
@@ -438,43 +456,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="8.85546875"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1"/>
-    <col min="13" max="13" width="32" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125"/>
-    <col min="16" max="16" width="39.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125"/>
+    <col min="14" max="14" width="39.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
     <col min="19" max="19" width="8.5703125"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
-    <col min="21" max="1025" width="8.5703125"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" customWidth="1"/>
+    <col min="25" max="25" width="29" customWidth="1"/>
+    <col min="26" max="26" width="23" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="1023" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -483,13 +508,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -515,13 +540,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -532,6 +557,24 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
+++ b/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
@@ -14,7 +14,7 @@
     <definedName name="Invoice_Details">#REF!</definedName>
     <definedName name="Invoice_Optional_Fields">#REF!</definedName>
     <definedName name="Invoice_Payment_Schedules">#REF!</definedName>
-    <definedName name="Invoices">'Job Costings'!$A$1:$H$2</definedName>
+    <definedName name="Invoices">'Job Costings'!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>CUSTPO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>BRANCH/UNIT</t>
   </si>
@@ -49,9 +46,6 @@
     <t>CUSTOMER ADDRESS</t>
   </si>
   <si>
-    <t>CONTACT Nos</t>
-  </si>
-  <si>
     <t>DESCRIPTION OF JOB</t>
   </si>
   <si>
@@ -107,6 +101,9 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>CONTACT NOs</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -467,114 +464,110 @@
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125"/>
-    <col min="14" max="14" width="39.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125"/>
-    <col min="20" max="20" width="16.85546875" customWidth="1"/>
-    <col min="21" max="21" width="23" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" customWidth="1"/>
-    <col min="25" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="23" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" customWidth="1"/>
-    <col min="28" max="1023" width="8.5703125"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125"/>
+    <col min="13" max="13" width="39.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" customWidth="1"/>
+    <col min="24" max="24" width="29" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" customWidth="1"/>
+    <col min="27" max="1022" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
+++ b/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
@@ -126,12 +126,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDC993"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,10 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -158,6 +166,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCDC993"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,11 +485,11 @@
     <col min="9" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125"/>
-    <col min="13" max="13" width="39.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125"/>
+    <col min="12" max="12" width="8.5703125" style="2"/>
+    <col min="13" max="13" width="39.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="2"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
     <col min="18" max="18" width="8.5703125"/>
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
@@ -524,19 +537,19 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">

--- a/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
+++ b/src/main/resources/reports/AR_JOB_COSTINGS.xlsx
@@ -88,9 +88,6 @@
     <t>DEPOSIT($)</t>
   </si>
   <si>
-    <t>DISCOUNT(%)</t>
-  </si>
-  <si>
     <t>AMOUNT DUE($)</t>
   </si>
   <si>
@@ -100,10 +97,13 @@
     <t>AUTHORIZED BY</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CONTACT NOs</t>
+  </si>
+  <si>
+    <t>DISCOUNT(%, $)</t>
+  </si>
+  <si>
+    <t>AUTHORIZED DATE</t>
   </si>
 </sst>
 </file>
@@ -489,16 +489,16 @@
     <col min="13" max="13" width="39.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="2"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" customWidth="1"/>
     <col min="22" max="22" width="16.85546875" customWidth="1"/>
     <col min="23" max="23" width="19.85546875" customWidth="1"/>
     <col min="24" max="24" width="29" customWidth="1"/>
-    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="25" max="25" width="29.42578125" customWidth="1"/>
     <col min="26" max="26" width="18.140625" customWidth="1"/>
     <col min="27" max="1022" width="8.5703125"/>
   </cols>
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -568,19 +568,19 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
